--- a/Datos para el tp.xlsx
+++ b/Datos para el tp.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\GestArk-main\GestArk-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\Cuatrimestre 2\Laboratorio de Computación II\TP parcial\TP parcial 1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E18267-37DB-429F-8930-7368F314B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752894AA-4567-45A8-B51D-E88FEF855DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{3FD61354-15A1-4A6E-9877-46BE6CD50DD6}"/>
+    <workbookView xWindow="30" yWindow="330" windowWidth="20370" windowHeight="10590" activeTab="2" xr2:uid="{3FD61354-15A1-4A6E-9877-46BE6CD50DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTICULOS" sheetId="1" r:id="rId1"/>
     <sheet name="CLIENTES" sheetId="2" r:id="rId2"/>
-    <sheet name="VENDEDORES" sheetId="5" r:id="rId3"/>
-    <sheet name="VENTAS" sheetId="3" r:id="rId4"/>
-    <sheet name="PROVEEDORES" sheetId="4" r:id="rId5"/>
+    <sheet name="VENTAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -209,132 +207,6 @@
   </si>
   <si>
     <t>FECHA (D/M/A)</t>
-  </si>
-  <si>
-    <t>PROVEEDOR</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t>NETMAK</t>
-  </si>
-  <si>
-    <t>TP-LINK</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>PROVEEDORES</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>AMD@fakemail.com</t>
-  </si>
-  <si>
-    <t>NVIDIA@fakemail.com</t>
-  </si>
-  <si>
-    <t>NETMAK@fakemail.com</t>
-  </si>
-  <si>
-    <t>TP-LINK@fakemail.com</t>
-  </si>
-  <si>
-    <t>LG@fakemail.com</t>
-  </si>
-  <si>
-    <t>alsina 200 san isidro</t>
-  </si>
-  <si>
-    <t>garibaldi 201 san fernando</t>
-  </si>
-  <si>
-    <t>pampa 202 virreyes</t>
-  </si>
-  <si>
-    <t>san jose 203 Haedo</t>
-  </si>
-  <si>
-    <t>don bosco 204 florida</t>
-  </si>
-  <si>
-    <t>VENDEDORES</t>
-  </si>
-  <si>
-    <t>Amador</t>
-  </si>
-  <si>
-    <t>Gonzalez</t>
-  </si>
-  <si>
-    <t>agonzalez@fakemail.com</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Chavero</t>
-  </si>
-  <si>
-    <t>echavero@fakemail.com</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Re</t>
-  </si>
-  <si>
-    <t>sre@fakemail.com</t>
-  </si>
-  <si>
-    <t>Ignacio</t>
-  </si>
-  <si>
-    <t>igonzalez@fakemail.com</t>
-  </si>
-  <si>
-    <t>achavero@fakemail.com</t>
-  </si>
-  <si>
-    <t>Ramiro</t>
-  </si>
-  <si>
-    <t>rre@fakemail.com</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>Costas</t>
-  </si>
-  <si>
-    <t>tcostas@fakemail.com</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>tlopez@fakemail.com</t>
-  </si>
-  <si>
-    <t>Morando</t>
-  </si>
-  <si>
-    <t>imorando@fakemail.com</t>
   </si>
 </sst>
 </file>
@@ -379,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,20 +294,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,80 +318,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -543,28 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -880,21 +650,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969BAF52-79C3-4551-A764-EA2C9DAE2666}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -902,9 +671,8 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,13 +686,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -937,14 +702,11 @@
       <c r="D3" s="1">
         <v>401</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -957,14 +719,11 @@
       <c r="D4" s="1">
         <v>243</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -977,14 +736,11 @@
       <c r="D5" s="1">
         <v>346</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -997,14 +753,11 @@
       <c r="D6" s="1">
         <v>178</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1017,14 +770,11 @@
       <c r="D7" s="1">
         <v>243</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1037,14 +787,11 @@
       <c r="D8" s="1">
         <v>104</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1057,14 +804,11 @@
       <c r="D9" s="1">
         <v>330</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1077,14 +821,11 @@
       <c r="D10" s="1">
         <v>290</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1097,14 +838,11 @@
       <c r="D11" s="1">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1117,14 +855,11 @@
       <c r="D12" s="1">
         <v>357</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1137,14 +872,11 @@
       <c r="D13" s="1">
         <v>386</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1157,14 +889,11 @@
       <c r="D14" s="1">
         <v>474</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1177,14 +906,11 @@
       <c r="D15" s="1">
         <v>370</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1197,14 +923,11 @@
       <c r="D16" s="1">
         <v>434</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1217,15 +940,9 @@
       <c r="D17" s="1">
         <v>151</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1237,13 +954,10 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1550,376 +1264,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC357C7-1AC4-4C91-AFD2-FA3772753A70}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>33123456</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="2">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1987</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="2">
-        <v>117894564</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>33234567</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1988</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2">
-        <v>118912345</v>
-      </c>
-      <c r="J4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>33345678</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="2">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1989</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="2">
-        <v>119123456</v>
-      </c>
-      <c r="J5" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>33456789</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="2">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1990</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="2">
-        <v>111234567</v>
-      </c>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>33567891</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1991</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="2">
-        <v>112345678</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>33678912</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1992</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="2">
-        <v>116549876</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>33789123</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="2">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1993</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="2">
-        <v>113366998</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>22345678</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="2">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1994</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="2">
-        <v>113355778</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>22345897</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1995</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="2">
-        <v>119988556</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{0DE46E05-93E2-44D3-AAEB-6247DF24759F}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{E778136B-A943-4225-AF1D-15892D0E657E}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{71E13456-9543-4F18-B128-CAA29BA63560}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{39E056A5-F383-4E74-823B-84F153625703}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{D0872E61-4E75-4E15-B375-4D0A723E6E72}"/>
-    <hyperlink ref="H8" r:id="rId6" xr:uid="{BA9E9670-6B16-4B1E-8F38-BC52A05886DA}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{5EEAC509-EE90-4C1C-AF19-22C1B9927C2B}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{7C8B0C19-5EDE-4C2B-AA9A-5FA4E27EE710}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{A07BC849-6C63-406D-89DC-0E92A2871D58}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64362A10-320C-4736-A256-4A82B53B0844}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2401,192 +1749,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA400D19-08CD-4176-92C3-B09F8504888D}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1112345678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1123456789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1134567891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1145678912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1156789123</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{66F00E91-10D1-4311-BA4A-6C9B9FEC8D75}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{1564CC14-B435-47DF-9436-14D937B1E48B}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{F8275B44-F858-4DE7-BAE3-AF2223961070}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{B6F288FD-B267-4FB9-A74B-861D1F884BA8}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{46EDAEB0-9D69-4DAA-A143-2398B9AD6C40}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Datos para el tp.xlsx
+++ b/Datos para el tp.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\Cuatrimestre 2\Laboratorio de Computación II\TP parcial\TP parcial 1.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\GestArk-main\GestArk-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752894AA-4567-45A8-B51D-E88FEF855DB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443F30D-9A95-4B74-9FD6-6EA6E8228B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="330" windowWidth="20370" windowHeight="10590" activeTab="2" xr2:uid="{3FD61354-15A1-4A6E-9877-46BE6CD50DD6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{3FD61354-15A1-4A6E-9877-46BE6CD50DD6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTICULOS" sheetId="1" r:id="rId1"/>
     <sheet name="CLIENTES" sheetId="2" r:id="rId2"/>
-    <sheet name="VENTAS" sheetId="3" r:id="rId3"/>
+    <sheet name="VENDEDORES" sheetId="5" r:id="rId3"/>
+    <sheet name="VENTAS" sheetId="3" r:id="rId4"/>
+    <sheet name="PROVEEDORES" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +209,135 @@
   </si>
   <si>
     <t>FECHA (D/M/A)</t>
+  </si>
+  <si>
+    <t>PROVEEDOR</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>NETMAK</t>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>PROVEEDORES</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>AMD@fakemail.com</t>
+  </si>
+  <si>
+    <t>NVIDIA@fakemail.com</t>
+  </si>
+  <si>
+    <t>NETMAK@fakemail.com</t>
+  </si>
+  <si>
+    <t>TP-LINK@fakemail.com</t>
+  </si>
+  <si>
+    <t>LG@fakemail.com</t>
+  </si>
+  <si>
+    <t>alsina 200 san isidro</t>
+  </si>
+  <si>
+    <t>garibaldi 201 san fernando</t>
+  </si>
+  <si>
+    <t>pampa 202 virreyes</t>
+  </si>
+  <si>
+    <t>san jose 203 Haedo</t>
+  </si>
+  <si>
+    <t>don bosco 204 florida</t>
+  </si>
+  <si>
+    <t>VENDEDORES</t>
+  </si>
+  <si>
+    <t>Amador</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>agonzalez@fakemail.com</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Chavero</t>
+  </si>
+  <si>
+    <t>echavero@fakemail.com</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>sre@fakemail.com</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>igonzalez@fakemail.com</t>
+  </si>
+  <si>
+    <t>achavero@fakemail.com</t>
+  </si>
+  <si>
+    <t>Ramiro</t>
+  </si>
+  <si>
+    <t>rre@fakemail.com</t>
+  </si>
+  <si>
+    <t>Tiago</t>
+  </si>
+  <si>
+    <t>Costas</t>
+  </si>
+  <si>
+    <t>tcostas@fakemail.com</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>tlopez@fakemail.com</t>
+  </si>
+  <si>
+    <t>Morando</t>
+  </si>
+  <si>
+    <t>imorando@fakemail.com</t>
+  </si>
+  <si>
+    <t>VENDEDOR</t>
   </si>
 </sst>
 </file>
@@ -251,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +425,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,12 +461,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -335,6 +546,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -650,20 +883,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969BAF52-79C3-4551-A764-EA2C9DAE2666}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -671,8 +905,9 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,10 +921,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -702,11 +940,14 @@
       <c r="D3" s="1">
         <v>401</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -719,11 +960,18 @@
       <c r="D4" s="1">
         <v>243</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>C3*395</f>
+        <v>375250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -736,11 +984,14 @@
       <c r="D5" s="1">
         <v>346</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -753,11 +1004,14 @@
       <c r="D6" s="1">
         <v>178</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -770,11 +1024,14 @@
       <c r="D7" s="1">
         <v>243</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -787,11 +1044,14 @@
       <c r="D8" s="1">
         <v>104</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,11 +1064,14 @@
       <c r="D9" s="1">
         <v>330</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -821,11 +1084,14 @@
       <c r="D10" s="1">
         <v>290</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -838,11 +1104,14 @@
       <c r="D11" s="1">
         <v>67</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -855,11 +1124,14 @@
       <c r="D12" s="1">
         <v>357</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,11 +1144,14 @@
       <c r="D13" s="1">
         <v>386</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -889,11 +1164,14 @@
       <c r="D14" s="1">
         <v>474</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -906,11 +1184,14 @@
       <c r="D15" s="1">
         <v>370</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -923,11 +1204,14 @@
       <c r="D16" s="1">
         <v>434</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -940,9 +1224,15 @@
       <c r="D17" s="1">
         <v>151</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,10 +1244,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -1264,16 +1557,385 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64362A10-320C-4736-A256-4A82B53B0844}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC357C7-1AC4-4C91-AFD2-FA3772753A70}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>33123456</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1987</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="2">
+        <v>117894564</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>33234567</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1988</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="2">
+        <v>118912345</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33345678</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1989</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="2">
+        <v>119123456</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33456789</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1990</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="2">
+        <v>111234567</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>33567891</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1991</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="2">
+        <v>112345678</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>33678912</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1992</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="2">
+        <v>116549876</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33789123</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1993</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="2">
+        <v>113366998</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22345678</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1994</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="2">
+        <v>113355778</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22345897</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1995</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2">
+        <v>119988556</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{0DE46E05-93E2-44D3-AAEB-6247DF24759F}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{E778136B-A943-4225-AF1D-15892D0E657E}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{71E13456-9543-4F18-B128-CAA29BA63560}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{39E056A5-F383-4E74-823B-84F153625703}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{D0872E61-4E75-4E15-B375-4D0A723E6E72}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{BA9E9670-6B16-4B1E-8F38-BC52A05886DA}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{5EEAC509-EE90-4C1C-AF19-22C1B9927C2B}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{7C8B0C19-5EDE-4C2B-AA9A-5FA4E27EE710}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{A07BC849-6C63-406D-89DC-0E92A2871D58}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64362A10-320C-4736-A256-4A82B53B0844}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="33" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
@@ -1285,8 +1947,9 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>58</v>
@@ -1310,8 +1973,11 @@
       <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1322,7 +1988,7 @@
         <v>1111</v>
       </c>
       <c r="D3" s="8">
-        <v>12000</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8">
         <v>2</v>
@@ -1339,8 +2005,11 @@
       <c r="I3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="8">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1351,7 +2020,7 @@
         <v>1111</v>
       </c>
       <c r="D4" s="8">
-        <v>17500</v>
+        <v>1</v>
       </c>
       <c r="E4" s="8">
         <v>5</v>
@@ -1368,8 +2037,11 @@
       <c r="I4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1380,7 +2052,7 @@
         <v>2222</v>
       </c>
       <c r="D5" s="8">
-        <v>14400</v>
+        <v>2</v>
       </c>
       <c r="E5" s="8">
         <v>12</v>
@@ -1397,8 +2069,11 @@
       <c r="I5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="8">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1409,7 +2084,7 @@
         <v>5555</v>
       </c>
       <c r="D6" s="8">
-        <v>27300</v>
+        <v>2</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -1426,8 +2101,11 @@
       <c r="I6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="8">
+        <v>27300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1438,7 +2116,7 @@
         <v>5555</v>
       </c>
       <c r="D7" s="8">
-        <v>37500</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8">
         <v>5</v>
@@ -1455,8 +2133,11 @@
       <c r="I7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="8">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1467,7 +2148,7 @@
         <v>5555</v>
       </c>
       <c r="D8" s="8">
-        <v>105000</v>
+        <v>3</v>
       </c>
       <c r="E8" s="8">
         <v>7</v>
@@ -1484,8 +2165,11 @@
       <c r="I8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="8">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1496,7 +2180,7 @@
         <v>2222</v>
       </c>
       <c r="D9" s="8">
-        <v>180000</v>
+        <v>4</v>
       </c>
       <c r="E9" s="8">
         <v>15</v>
@@ -1513,8 +2197,11 @@
       <c r="I9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1525,7 +2212,7 @@
         <v>3333</v>
       </c>
       <c r="D10" s="8">
-        <v>26400</v>
+        <v>4</v>
       </c>
       <c r="E10" s="8">
         <v>12</v>
@@ -1542,8 +2229,11 @@
       <c r="I10" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
+        <v>26400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1554,7 +2244,7 @@
         <v>7777</v>
       </c>
       <c r="D11" s="8">
-        <v>36000</v>
+        <v>5</v>
       </c>
       <c r="E11" s="8">
         <v>3</v>
@@ -1571,8 +2261,11 @@
       <c r="I11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="8">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1583,7 +2276,7 @@
         <v>1111</v>
       </c>
       <c r="D12" s="8">
-        <v>49500</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8">
         <v>11</v>
@@ -1600,8 +2293,11 @@
       <c r="I12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="8">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1612,7 +2308,7 @@
         <v>9999</v>
       </c>
       <c r="D13" s="8">
-        <v>45000</v>
+        <v>6</v>
       </c>
       <c r="E13" s="8">
         <v>10</v>
@@ -1629,8 +2325,11 @@
       <c r="I13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1641,7 +2340,7 @@
         <v>2222</v>
       </c>
       <c r="D14" s="8">
-        <v>132000</v>
+        <v>6</v>
       </c>
       <c r="E14" s="8">
         <v>22</v>
@@ -1658,8 +2357,11 @@
       <c r="I14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="8">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1670,7 +2372,7 @@
         <v>3333</v>
       </c>
       <c r="D15" s="8">
-        <v>63000</v>
+        <v>7</v>
       </c>
       <c r="E15" s="8">
         <v>14</v>
@@ -1687,8 +2389,11 @@
       <c r="I15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="8">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1699,7 +2404,7 @@
         <v>7777</v>
       </c>
       <c r="D16" s="8">
-        <v>240000</v>
+        <v>7</v>
       </c>
       <c r="E16" s="8">
         <v>16</v>
@@ -1716,8 +2421,11 @@
       <c r="I16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="8">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1728,7 +2436,7 @@
         <v>9999</v>
       </c>
       <c r="D17" s="8">
-        <v>39600</v>
+        <v>8</v>
       </c>
       <c r="E17" s="8">
         <v>18</v>
@@ -1745,8 +2453,200 @@
       <c r="I17" s="8">
         <v>1</v>
       </c>
+      <c r="L17" s="8">
+        <v>39600</v>
+      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA400D19-08CD-4176-92C3-B09F8504888D}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1112345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1123456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1134567891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1145678912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1156789123</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{66F00E91-10D1-4311-BA4A-6C9B9FEC8D75}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1564CC14-B435-47DF-9436-14D937B1E48B}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{F8275B44-F858-4DE7-BAE3-AF2223961070}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B6F288FD-B267-4FB9-A74B-861D1F884BA8}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{46EDAEB0-9D69-4DAA-A143-2398B9AD6C40}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>